--- a/Tests Data/Kyocera KC85TS/Single diode model/STC/R load/Single-diode emulator - R - Kyocera KC85TS (STC).xlsx
+++ b/Tests Data/Kyocera KC85TS/Single diode model/STC/R load/Single-diode emulator - R - Kyocera KC85TS (STC).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Stage\Fête de la Sciense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Stage\Emulator\Tests Data\Kyocera KC85TS\Single diode model\STC\R load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DFAF7C-878B-4D38-BFBE-858C537660AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0959F-39CD-4A0B-AE4F-DC39CFE0D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7785" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -135,7 +135,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ênfase6" xfId="1" builtinId="49"/>
@@ -471,13 +470,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B8D570-ED79-418B-A1D1-0F000D275672}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -525,452 +527,552 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>1.4</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C2">
         <f>A2*B2</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>11.67</v>
+        <v>11.69</v>
       </c>
       <c r="E2">
-        <v>5.18</v>
+        <v>5.14</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2" si="0">D2*E2</f>
-        <v>60.450599999999994</v>
+        <v>60.086599999999997</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2" si="1">D2/E2</f>
-        <v>2.2528957528957529</v>
+        <v>2.2743190661478598</v>
       </c>
       <c r="H2">
-        <v>23.937536000000001</v>
+        <v>22.960471999999999</v>
       </c>
       <c r="I2">
-        <v>10.608313000000001</v>
+        <v>10.105235</v>
       </c>
       <c r="J2">
-        <v>12.032783</v>
+        <v>12.117974</v>
       </c>
       <c r="K2">
-        <v>5.3325250000000004</v>
+        <v>5.3332949999999997</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2" si="2">J2/K2</f>
-        <v>2.256488811585506</v>
+        <v>2.2721364559807777</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2" si="3">(ABS(L2-G2)/G2)*100</f>
-        <v>0.15948623832836861</v>
+        <v>9.5967632667253999E-2</v>
       </c>
       <c r="N2">
         <f>(F4/C4)*100</f>
-        <v>88.215568862275433</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="C3">
         <f>A3*B3</f>
-        <v>79.5</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>13.63</v>
+        <v>13.84</v>
       </c>
       <c r="E3">
-        <v>5.07</v>
+        <v>4.97</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F13" si="4">D3*E3</f>
-        <v>69.104100000000003</v>
+        <f t="shared" ref="F3:F12" si="4">D3*E3</f>
+        <v>68.78479999999999</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G13" si="5">D3/E3</f>
-        <v>2.6883629191321501</v>
+        <f t="shared" ref="G3:G12" si="5">D3/E3</f>
+        <v>2.7847082494969819</v>
       </c>
       <c r="H3">
-        <v>23.787804000000001</v>
+        <v>23.073623999999999</v>
       </c>
       <c r="I3">
-        <v>9.0220199999999995</v>
+        <v>8.5839160000000003</v>
       </c>
       <c r="J3">
-        <v>14.035207</v>
+        <v>14.291577999999999</v>
       </c>
       <c r="K3">
-        <v>5.3231450000000002</v>
+        <v>5.3167939999999998</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L13" si="6">J3/K3</f>
-        <v>2.6366381152495375</v>
+        <f t="shared" ref="L3:L10" si="6">J3/K3</f>
+        <v>2.6880067198390609</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M13" si="7">(ABS(L3-G3)/G3)*100</f>
-        <v>1.9240260871962271</v>
+        <f t="shared" ref="M3:M10" si="7">(ABS(L3-G3)/G3)*100</f>
+        <v>3.4725910578025099</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N10" si="8">(F3/C3)*100</f>
-        <v>86.923396226415093</v>
+        <v>88.185641025641019</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="C4">
         <f>A4*B4</f>
-        <v>83.5</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>14.5</v>
+        <v>15.24</v>
       </c>
       <c r="E4">
-        <v>5.08</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F4">
         <f t="shared" si="4"/>
-        <v>73.66</v>
+        <v>74.676000000000002</v>
       </c>
       <c r="G4">
         <f t="shared" si="5"/>
-        <v>2.8543307086614171</v>
+        <v>3.1102040816326531</v>
       </c>
       <c r="H4">
-        <v>23.817374999999998</v>
+        <v>23.067675000000001</v>
       </c>
       <c r="I4">
-        <v>8.4576550000000008</v>
+        <v>7.7473580000000002</v>
       </c>
       <c r="J4">
-        <v>14.918990000000001</v>
+        <v>15.696717</v>
       </c>
       <c r="K4">
-        <v>5.2977990000000004</v>
+        <v>5.2717960000000001</v>
       </c>
       <c r="L4">
         <f t="shared" si="6"/>
-        <v>2.8160732409817739</v>
+        <v>2.9774894552065367</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>1.3403305918109487</v>
+        <v>4.2670713220995404</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
-        <v>88.215568862275433</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
       <c r="C5">
         <f>A5*B5</f>
-        <v>87</v>
+        <v>86.399999999999991</v>
       </c>
       <c r="D5">
-        <v>15.55</v>
+        <v>16.23</v>
       </c>
       <c r="E5">
-        <v>4.9400000000000004</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="F5">
         <f t="shared" si="4"/>
-        <v>76.817000000000007</v>
+        <v>78.715499999999992</v>
       </c>
       <c r="G5">
         <f>D5/E5</f>
-        <v>3.1477732793522266</v>
+        <v>3.3463917525773201</v>
       </c>
       <c r="H5">
-        <v>23.797363000000001</v>
+        <v>22.981272000000001</v>
       </c>
       <c r="I5">
-        <v>7.8028360000000001</v>
+        <v>7.0826089999999997</v>
       </c>
       <c r="J5">
-        <v>15.958515999999999</v>
+        <v>16.649363000000001</v>
       </c>
       <c r="K5">
-        <v>5.2325840000000001</v>
+        <v>5.131176</v>
       </c>
       <c r="L5">
         <f t="shared" si="6"/>
-        <v>3.0498346514838555</v>
+        <v>3.2447460387248461</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>3.1113621972331416</v>
+        <v>3.0374720405699254</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
-        <v>88.295402298850576</v>
+        <v>91.105902777777786</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B6">
-        <v>1.82</v>
+        <v>1.47</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C10" si="9">A6*B6</f>
-        <v>91</v>
+        <f t="shared" ref="C6:C12" si="9">A6*B6</f>
+        <v>88.2</v>
       </c>
       <c r="D6">
-        <v>16.93</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3">
-        <v>4.7300000000000004</v>
+        <v>4.71</v>
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>80.078900000000004</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>3.5792811839323462</v>
+        <v>3.6093418259023355</v>
       </c>
       <c r="H6">
-        <v>23.820533999999999</v>
+        <v>22.994510999999999</v>
       </c>
       <c r="I6">
-        <v>6.9156259999999996</v>
+        <v>6.6090720000000003</v>
       </c>
       <c r="J6">
-        <v>17.328434000000001</v>
+        <v>17.420082000000001</v>
       </c>
       <c r="K6">
-        <v>5.0308260000000002</v>
+        <v>5.0068720000000004</v>
       </c>
       <c r="L6">
         <f t="shared" si="6"/>
-        <v>3.4444510702616231</v>
+        <v>3.4792345400481577</v>
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>3.7669606477408162</v>
+        <v>3.6047371551363394</v>
       </c>
       <c r="N6">
         <f t="shared" si="8"/>
-        <v>87.998791208791218</v>
+        <v>90.782312925170061</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="C7">
         <f t="shared" si="9"/>
-        <v>81.5</v>
+        <v>84.6</v>
       </c>
       <c r="D7">
-        <v>18.12</v>
+        <v>17.52</v>
       </c>
       <c r="E7">
-        <v>4.0199999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>72.842399999999998</v>
+        <v>77.088000000000008</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>4.5074626865671652</v>
+        <v>3.9818181818181815</v>
       </c>
       <c r="H7">
-        <v>23.915047000000001</v>
+        <v>22.998159000000001</v>
       </c>
       <c r="I7">
-        <v>5.5446260000000001</v>
+        <v>5.9652409999999998</v>
       </c>
       <c r="J7">
-        <v>18.489063000000002</v>
+        <v>17.944386000000002</v>
       </c>
       <c r="K7">
-        <v>4.2866299999999997</v>
+        <v>4.6543979999999996</v>
       </c>
       <c r="L7">
         <f t="shared" si="6"/>
-        <v>4.3131931144045561</v>
+        <v>3.8553613163292018</v>
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>4.3099540844022535</v>
+        <v>3.1758573524629616</v>
       </c>
       <c r="N7">
         <f t="shared" si="8"/>
-        <v>89.377177914110433</v>
+        <v>91.120567375886537</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="C8">
         <f t="shared" si="9"/>
-        <v>71.5</v>
+        <v>76.2</v>
       </c>
       <c r="D8">
-        <v>19.25</v>
+        <v>18.52</v>
       </c>
       <c r="E8">
-        <v>3.31</v>
+        <v>3.73</v>
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>63.717500000000001</v>
+        <v>69.079599999999999</v>
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
-        <v>5.8157099697885197</v>
+        <v>4.9651474530831097</v>
       </c>
       <c r="H8">
-        <v>23.861039999999999</v>
+        <v>23.001529999999999</v>
       </c>
       <c r="I8">
-        <v>4.3277919999999996</v>
+        <v>4.8720790000000003</v>
       </c>
       <c r="J8">
-        <v>19.562981000000001</v>
-      </c>
-      <c r="K8" s="4">
-        <v>3.5482320000000001</v>
+        <v>18.909791999999999</v>
+      </c>
+      <c r="K8">
+        <v>4.0053859999999997</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>5.5134447240203013</v>
+        <v>4.7210910508999637</v>
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>5.1973920181444315</v>
+        <v>4.9153908215072057</v>
       </c>
       <c r="N8">
         <f t="shared" si="8"/>
-        <v>89.115384615384613</v>
+        <v>90.65564304461941</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>1.1000000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="C9">
         <f t="shared" si="9"/>
-        <v>55.000000000000007</v>
+        <v>71.399999999999991</v>
       </c>
       <c r="D9">
-        <v>19.91</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="E9">
-        <v>2.4900000000000002</v>
+        <v>3.39</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>49.575900000000004</v>
+        <v>64.918499999999995</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>7.9959839357429709</v>
+        <v>5.6489675516224178</v>
       </c>
       <c r="H9">
-        <v>23.897846000000001</v>
+        <v>23.004377000000002</v>
       </c>
       <c r="I9">
-        <v>3.208596</v>
+        <v>4.2630489999999996</v>
       </c>
       <c r="J9">
-        <v>20.156058999999999</v>
+        <v>19.494135</v>
       </c>
       <c r="K9">
-        <v>2.7062119999999998</v>
+        <v>3.6125500000000001</v>
       </c>
       <c r="L9">
         <f t="shared" si="6"/>
-        <v>7.4480709567469212</v>
+        <v>5.3962256577763625</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>6.8523521732805817</v>
+        <v>4.474125431530692</v>
       </c>
       <c r="N9">
         <f t="shared" si="8"/>
-        <v>90.137999999999991</v>
+        <v>90.922268907563037</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>0.46</v>
+        <v>0.89</v>
       </c>
       <c r="C10">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>53.4</v>
       </c>
       <c r="D10">
-        <v>20.93</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="E10">
-        <v>0.91500000000000004</v>
+        <v>2.44</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>19.150950000000002</v>
+        <v>48.385199999999998</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>22.874316939890708</v>
+        <v>8.1270491803278677</v>
       </c>
       <c r="H10">
-        <v>23.897167700000001</v>
+        <v>23.008120999999999</v>
       </c>
       <c r="I10">
-        <v>1.333663</v>
+        <v>3.123704</v>
       </c>
       <c r="J10">
-        <v>21.079177999999999</v>
+        <v>20.138874000000001</v>
       </c>
       <c r="K10">
-        <v>1.1763950000000001</v>
+        <v>2.7341600000000001</v>
       </c>
       <c r="L10">
         <f t="shared" si="6"/>
-        <v>17.918452560577016</v>
+        <v>7.3656530707785937</v>
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>21.665627840764589</v>
+        <v>9.3686661991942959</v>
       </c>
       <c r="N10">
         <f t="shared" si="8"/>
-        <v>83.265000000000015</v>
+        <v>90.608988764044938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>0.7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>20.34</v>
+      </c>
+      <c r="E11">
+        <v>1.83</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>37.222200000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>11.114754098360656</v>
+      </c>
+      <c r="H11">
+        <v>23.009827000000001</v>
+      </c>
+      <c r="I11">
+        <v>2.3363100000000001</v>
+      </c>
+      <c r="J11">
+        <v>20.592268000000001</v>
+      </c>
+      <c r="K11">
+        <v>2.0908419999999999</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11" si="10">J11/K11</f>
+        <v>9.8487920177612658</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11" si="11">(ABS(L11-G11)/G11)*100</f>
+        <v>11.389924323976814</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11" si="12">(F11/C11)*100</f>
+        <v>88.624285714285705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="9"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>0.62</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>13.02</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>33.870967741935488</v>
+      </c>
+      <c r="H12">
+        <v>23.009777</v>
+      </c>
+      <c r="I12">
+        <v>1.0634410000000001</v>
+      </c>
+      <c r="J12">
+        <v>21.184660000000001</v>
+      </c>
+      <c r="K12">
+        <v>0.97908899999999999</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12" si="13">J12/K12</f>
+        <v>21.637113684251382</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12" si="14">(ABS(L12-G12)/G12)*100</f>
+        <v>36.118997694114974</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12" si="15">(F12/C12)*100</f>
+        <v>74.827586206896555</v>
       </c>
     </row>
   </sheetData>
